--- a/medicine/Enfance/Christian_Oster/Christian_Oster.xlsx
+++ b/medicine/Enfance/Christian_Oster/Christian_Oster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Oster est un écrivain français, né à Paris en 1949.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir lu [réf. souhaitée] Le Chiendent de Raymond Queneau, Christian Oster se lance en littérature en écrivant des polars pour le Fleuve noir, dans les années 1980.
 Il est connu pour être l'auteur de Mon grand appartement, récompensé en 1999 par le Prix Médicis, et d'Une femme de ménage (2001), adapté au cinéma l'année suivante par Claude Berri, tous deux parus aux éditions de Minuit.
-Pour Télérama , « son humour flegmatique est un trampoline bien tendu, sur lequel son histoire rebondit toujours plus haut. »[1]
-Christian Oster publie régulièrement, aux éditions de l'École des Loisirs, des recueils de contes[2] peuplés de loups, d'ogres et de princesses, mais aussi d'aliments variés et d'objets de la vie quotidienne du XXIe siècle. On y trouve de la fantaisie[3], de nombreux jeux de mots et un traitement ironique du langage.
+Pour Télérama , « son humour flegmatique est un trampoline bien tendu, sur lequel son histoire rebondit toujours plus haut. »
+Christian Oster publie régulièrement, aux éditions de l'École des Loisirs, des recueils de contes peuplés de loups, d'ogres et de princesses, mais aussi d'aliments variés et d'objets de la vie quotidienne du XXIe siècle. On y trouve de la fantaisie, de nombreux jeux de mots et un traitement ironique du langage.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Courants d'influence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus de Raymond Queneau, Christian Oster est influencé par Jean-Patrick Manchette, auteur de polars dont il apprécie la liberté du style d'écriture. Un peu plus tard dans son parcours littéraire, il se verra affublé de l'étiquette d'écrivain « impassible », dont la froideur de la prose rappelle celle du Nouveau Roman. 
 </t>
@@ -578,9 +594,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Aux éditions de Minuit
-Volley-ball, 1989  (ISBN 2707312762)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aux éditions de Minuit</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Volley-ball, 1989  (ISBN 2707312762)
 L’Aventure, 1993  (ISBN 2707314463)
 Le Pont d’Arcueil, 1994  (ISBN 2707314781)
 Paul au téléphone, 1996  (ISBN 2707315303)
@@ -593,19 +617,125 @@
 L’Imprévu, 2005  (ISBN 2707318981)
 Sur la dune, 2007  (ISBN 9782707319791)
 Trois hommes seuls, 2008  (ISBN 9782707320506)
-Dans la cathédrale, 2010  (ISBN 9782707321084) (Prix Vendanges Littéraires de Rivesaltes, 2010[4])
-Aux éditions de l'Olivier
-Rouler, 2011  (ISBN 9782879297774) (Prix La Montagne-Terre de France 2011[5])
+Dans la cathédrale, 2010  (ISBN 9782707321084) (Prix Vendanges Littéraires de Rivesaltes, 2010)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Oster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Oster</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Aux éditions de l'Olivier</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Rouler, 2011  (ISBN 9782879297774) (Prix La Montagne-Terre de France 2011)
 En ville, 2013  (ISBN 2879297788)
-Le Cœur du problème, 2015  (ISBN 978-2-87929-779-8)[6]
+Le Cœur du problème, 2015  (ISBN 978-2-87929-779-8)
 La vie automatique, 2017  (ISBN 978-2-82360-878-6)
-Massif central[1], 2018  (ISBN 978-2-82361-202-8)[7]
-Romans policiers
-La Pause du tueur, Fleuve Noir, coll. « Engrenage » no 97, 1984
+Massif central, 2018  (ISBN 978-2-82361-202-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Oster</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Oster</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Pause du tueur, Fleuve Noir, coll. « Engrenage » no 97, 1984
 Noctambule, Fleuve Noir, coll. « Engrenage » no 111, 1985
-Le Fou sur la colline, Fleuve Noir, coll. « Engrenage » no 127, 1985
-Ouvrages de littérature d'enfance et jeunesse
-Le Lapin magique, ill. de Anaïs Vaugelade, L'École des loisirs, coll. « Mouche », 1998
+Le Fou sur la colline, Fleuve Noir, coll. « Engrenage » no 127, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Christian_Oster</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Oster</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Lapin magique, ill. de Anaïs Vaugelade, L'École des loisirs, coll. « Mouche », 1998
 L'abominable Histoire de la poule, ill. de Alan Mets, L'École des loisirs, coll. « Mouche », 1998
 Le Colonel des petits pois et autres histoires, ill. de Willi Glasauer, L'École des loisirs, coll. « Neuf », 1999
 Le Prince qui cherchait l'amour et autres histoires, ill. de Willi Glasauer, L'École des loisirs, coll. « Neuf », 1999
@@ -626,72 +756,76 @@
 Le Roi fait sa valise, ill. de Dorothée de Monfreid, L'École des loisirs, coll. « Neuf », 2004
 La Princesse qui n’existait pas, ill. de Kitty Crowther, L'École des loisirs, coll. « Neuf », 2004
 Le Chevalier qui cherchait ses chaussettes, ill. de Pascal Lemaître, L'École des loisirs, coll. « Mouche », 2007
-Le cochon qui voulait bronzer[3], éd. École des loisirs , 2007
+Le cochon qui voulait bronzer, éd. École des loisirs , 2007
 La Princesse poussiéreuse, ill. de Willi Glasauer, L'École des loisirs, coll. « Mouche », 2009
-Le Géant et le gigot[2], ill. de Audrey Poussier, L'École des loisirs, coll. « Mouche », 2011
+Le Géant et le gigot, ill. de Audrey Poussier, L'École des loisirs, coll. « Mouche », 2011
 Le Cochon et le prince, illustrations de Dorothée de Monfreid, L'École des loisirs, coll. « Mouche », 2013
 L'Invitation faite au loup, ill. d'Anaïs Vaugelade, L'École des loisirs, coll. « Mouche », 2013,
 Le Loup en laisse , illustrations de Michel Van Zeveren, L'École des loisirs, coll. « Mouche », 2017</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Christian_Oster</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christian_Oster</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Prix Médicis 1999 pour Mon grand appartement
 Prix Terre de France 2011 pour Rouler
-Prix Landerneau 2013 catégorie Roman pour En ville[8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+Prix Landerneau 2013 catégorie Roman pour En ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Christian_Oster</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christian_Oster</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre au cinéma</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2002 : Une femme de ménage, film français de Claude Berri, d'après le roman au même titre paru en 2001.</t>
         </is>
